--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nppc-Npr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Nppc-Npr2.xlsx
@@ -543,10 +543,10 @@
         <v>1.036416</v>
       </c>
       <c r="I2">
-        <v>0.04252318178201096</v>
+        <v>0.4258685247791129</v>
       </c>
       <c r="J2">
-        <v>0.06245684087400865</v>
+        <v>0.5266590341921646</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.52582633333333</v>
+        <v>11.839004</v>
       </c>
       <c r="N2">
-        <v>52.577479</v>
+        <v>35.517012</v>
       </c>
       <c r="O2">
-        <v>0.5849657972467295</v>
+        <v>0.4816941403820247</v>
       </c>
       <c r="P2">
-        <v>0.6146095941370401</v>
+        <v>0.5139419866672059</v>
       </c>
       <c r="Q2">
-        <v>6.054682275029334</v>
+        <v>4.090044389888001</v>
       </c>
       <c r="R2">
-        <v>54.492140475264</v>
+        <v>36.810399508992</v>
       </c>
       <c r="S2">
-        <v>0.02487460693258164</v>
+        <v>0.2051383729592358</v>
       </c>
       <c r="T2">
-        <v>0.03838657362065615</v>
+        <v>0.270672190328953</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>1.036416</v>
       </c>
       <c r="I3">
-        <v>0.04252318178201096</v>
+        <v>0.4258685247791129</v>
       </c>
       <c r="J3">
-        <v>0.06245684087400865</v>
+        <v>0.5266590341921646</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>24.187421</v>
       </c>
       <c r="O3">
-        <v>0.2691040779761861</v>
+        <v>0.3280382642169655</v>
       </c>
       <c r="P3">
-        <v>0.2827412285026393</v>
+        <v>0.3499993524538634</v>
       </c>
       <c r="Q3">
         <v>2.785358902570667</v>
@@ -635,10 +635,10 @@
         <v>25.068230123136</v>
       </c>
       <c r="S3">
-        <v>0.01144316162606181</v>
+        <v>0.1397011716531799</v>
       </c>
       <c r="T3">
-        <v>0.01765912391711106</v>
+        <v>0.1843303209312347</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,40 +667,40 @@
         <v>1.036416</v>
       </c>
       <c r="I4">
-        <v>0.04252318178201096</v>
+        <v>0.4258685247791129</v>
       </c>
       <c r="J4">
-        <v>0.06245684087400865</v>
+        <v>0.5266590341921646</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.03698266666666667</v>
+        <v>0.049877</v>
       </c>
       <c r="N4">
-        <v>0.110948</v>
+        <v>0.149631</v>
       </c>
       <c r="O4">
-        <v>0.00123438374199969</v>
+        <v>0.002029347962027401</v>
       </c>
       <c r="P4">
-        <v>0.001296937520536432</v>
+        <v>0.002165206166751885</v>
       </c>
       <c r="Q4">
-        <v>0.01277647581866667</v>
+        <v>0.017231106944</v>
       </c>
       <c r="R4">
-        <v>0.114988282368</v>
+        <v>0.155079962496</v>
       </c>
       <c r="S4">
-        <v>5.248992424981175E-05</v>
+        <v>0.0008642354228521085</v>
       </c>
       <c r="T4">
-        <v>8.100262034367525E-05</v>
+        <v>0.001140325388608467</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>1.036416</v>
       </c>
       <c r="I5">
-        <v>0.04252318178201096</v>
+        <v>0.4258685247791129</v>
       </c>
       <c r="J5">
-        <v>0.06245684087400865</v>
+        <v>0.5266590341921646</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.3351465</v>
+        <v>4.6264905</v>
       </c>
       <c r="N5">
-        <v>8.670292999999999</v>
+        <v>9.252981</v>
       </c>
       <c r="O5">
-        <v>0.1446957410350847</v>
+        <v>0.1882382474389825</v>
       </c>
       <c r="P5">
-        <v>0.1013522398397842</v>
+        <v>0.1338934547121788</v>
       </c>
       <c r="Q5">
-        <v>1.497671731648</v>
+        <v>1.598322926016</v>
       </c>
       <c r="R5">
-        <v>8.986030389887999</v>
+        <v>9.589937556096</v>
       </c>
       <c r="S5">
-        <v>0.00615292329911769</v>
+        <v>0.08016474474384511</v>
       </c>
       <c r="T5">
-        <v>0.006330140715897764</v>
+        <v>0.07051619754336839</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>7.7788495</v>
+        <v>0.4657455</v>
       </c>
       <c r="H6">
-        <v>15.557699</v>
+        <v>0.931491</v>
       </c>
       <c r="I6">
-        <v>0.9574768182179889</v>
+        <v>0.5741314752208871</v>
       </c>
       <c r="J6">
-        <v>0.9375431591259914</v>
+        <v>0.4733409658078355</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.52582633333333</v>
+        <v>11.839004</v>
       </c>
       <c r="N6">
-        <v>52.577479</v>
+        <v>35.517012</v>
       </c>
       <c r="O6">
-        <v>0.5849657972467295</v>
+        <v>0.4816941403820247</v>
       </c>
       <c r="P6">
-        <v>0.6146095941370401</v>
+        <v>0.5139419866672059</v>
       </c>
       <c r="Q6">
-        <v>136.3307654101368</v>
+        <v>5.513962837482</v>
       </c>
       <c r="R6">
-        <v>817.984592460821</v>
+        <v>33.083777024892</v>
       </c>
       <c r="S6">
-        <v>0.5600911903141478</v>
+        <v>0.276555767422789</v>
       </c>
       <c r="T6">
-        <v>0.576223020516384</v>
+        <v>0.2432697963382529</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>7.7788495</v>
+        <v>0.4657455</v>
       </c>
       <c r="H7">
-        <v>15.557699</v>
+        <v>0.931491</v>
       </c>
       <c r="I7">
-        <v>0.9574768182179889</v>
+        <v>0.5741314752208871</v>
       </c>
       <c r="J7">
-        <v>0.9375431591259914</v>
+        <v>0.4733409658078355</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>24.187421</v>
       </c>
       <c r="O7">
-        <v>0.2691040779761861</v>
+        <v>0.3280382642169655</v>
       </c>
       <c r="P7">
-        <v>0.2827412285026393</v>
+        <v>0.3499993524538634</v>
       </c>
       <c r="Q7">
-        <v>62.71676925071317</v>
+        <v>3.7550608291185</v>
       </c>
       <c r="R7">
-        <v>376.300615504279</v>
+        <v>22.530364974711</v>
       </c>
       <c r="S7">
-        <v>0.2576609163501242</v>
+        <v>0.1883370925637855</v>
       </c>
       <c r="T7">
-        <v>0.2650821045855282</v>
+        <v>0.1656690315226287</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>0.5</v>
       </c>
       <c r="G8">
-        <v>7.7788495</v>
+        <v>0.4657455</v>
       </c>
       <c r="H8">
-        <v>15.557699</v>
+        <v>0.931491</v>
       </c>
       <c r="I8">
-        <v>0.9574768182179889</v>
+        <v>0.5741314752208871</v>
       </c>
       <c r="J8">
-        <v>0.9375431591259914</v>
+        <v>0.4733409658078355</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.03698266666666667</v>
+        <v>0.049877</v>
       </c>
       <c r="N8">
-        <v>0.110948</v>
+        <v>0.149631</v>
       </c>
       <c r="O8">
-        <v>0.00123438374199969</v>
+        <v>0.002029347962027401</v>
       </c>
       <c r="P8">
-        <v>0.001296937520536432</v>
+        <v>0.002165206166751885</v>
       </c>
       <c r="Q8">
-        <v>0.2876825981086667</v>
+        <v>0.0232299883035</v>
       </c>
       <c r="R8">
-        <v>1.726095588652</v>
+        <v>0.139379929821</v>
       </c>
       <c r="S8">
-        <v>0.001181893817749878</v>
+        <v>0.001165112539175293</v>
       </c>
       <c r="T8">
-        <v>0.001215934900192757</v>
+        <v>0.001024880778143419</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.5</v>
       </c>
       <c r="G9">
-        <v>7.7788495</v>
+        <v>0.4657455</v>
       </c>
       <c r="H9">
-        <v>15.557699</v>
+        <v>0.931491</v>
       </c>
       <c r="I9">
-        <v>0.9574768182179889</v>
+        <v>0.5741314752208871</v>
       </c>
       <c r="J9">
-        <v>0.9375431591259914</v>
+        <v>0.4733409658078355</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.3351465</v>
+        <v>4.6264905</v>
       </c>
       <c r="N9">
-        <v>8.670292999999999</v>
+        <v>9.252981</v>
       </c>
       <c r="O9">
-        <v>0.1446957410350847</v>
+        <v>0.1882382474389825</v>
       </c>
       <c r="P9">
-        <v>0.1013522398397842</v>
+        <v>0.1338934547121788</v>
       </c>
       <c r="Q9">
-        <v>33.72245218395175</v>
+        <v>2.15476713116775</v>
       </c>
       <c r="R9">
-        <v>134.889808735807</v>
+        <v>8.619068524671</v>
       </c>
       <c r="S9">
-        <v>0.138542817735967</v>
+        <v>0.1080735026951374</v>
       </c>
       <c r="T9">
-        <v>0.09502209912388647</v>
+        <v>0.06337725716881037</v>
       </c>
     </row>
   </sheetData>
